--- a/EMA.xlsx
+++ b/EMA.xlsx
@@ -7670,7 +7670,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="n">
-        <v>228.5756280465805</v>
+        <v>228.4820796594838</v>
       </c>
     </row>
   </sheetData>
